--- a/medicine/Soins infirmiers et profession infirmière/1915_en_santé_et_médecine/1915_en_santé_et_médecine.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/1915_en_santé_et_médecine/1915_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1915_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1915_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1915 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1915_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1915_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>16 mars : en France, loi sur l’interdiction de l’absinthe[1].
-22 avril :  à 17 h 30, à Ypres, en Belgique, le chimiste allemand Fritz Haber, futur lauréat du prix Nobel, déclenche contre les troupes franco-algériennes la première attaque au chlore : cent quatre-vingts tonnes de gaz libéré depuis des conteneurs statiques tuent entre huit et quatorze cents hommes sur les deux à trois mille intoxiqués[2].
-7 mai : Émile Schlick dépose le brevet de la canne dite aujourd'hui canne anglaise[3].
-11 mai : installation à Sainte-Menehould, près de la ligne de feu, de l'« auto-chir A1 », première ambulance chirurgicale automobile mise au point par Maurice Marcille pour le traitement des blessés intransportables[4].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>16 mars : en France, loi sur l’interdiction de l’absinthe.
+22 avril :  à 17 h 30, à Ypres, en Belgique, le chimiste allemand Fritz Haber, futur lauréat du prix Nobel, déclenche contre les troupes franco-algériennes la première attaque au chlore : cent quatre-vingts tonnes de gaz libéré depuis des conteneurs statiques tuent entre huit et quatorze cents hommes sur les deux à trois mille intoxiqués.
+7 mai : Émile Schlick dépose le brevet de la canne dite aujourd'hui canne anglaise.
+11 mai : installation à Sainte-Menehould, près de la ligne de feu, de l'« auto-chir A1 », première ambulance chirurgicale automobile mise au point par Maurice Marcille pour le traitement des blessés intransportables.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1915_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1915_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Médaille Copley : Ivan Pavlov (1849-1936) sur la base de ses travaux sur la physiologie de la digestion et des centres supérieurs du système nerveux[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Médaille Copley : Ivan Pavlov (1849-1936) sur la base de ses travaux sur la physiologie de la digestion et des centres supérieurs du système nerveux.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1915_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1915_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2 janvier : Joseph Cesari (mort en 1972), chimiste, membre de la French Connection, spécialiste du raffinage de l'héroïne.
 3 janvier : Mohamed Ben Salem (mort en 2001), médecin et homme politique tunisien.
@@ -584,22 +602,22 @@
 16 janvier : Harold Copp (de) (mort en 1998), physiologiste et biochimiste canadien, découvreur de la calcitonine.
 21 janvier : Josef Oberhauser (mort en 1979), officier SS, participe à la campagne d'euthanasie des handicapés mentaux ou physiques.
 26 janvier : Robert Aron-Brunetière (mort en 1994), dermatologue français.
-31 janvier : Claude Dufourmentel (mort en 2012), chirurgien français[6].
+31 janvier : Claude Dufourmentel (mort en 2012), chirurgien français.
 12 février : Pierre Bourgeois (mort en 1992), médecin et homme politique français.
 26 février : Peter Medawar (mort en 1987), biologiste britannique, spécialiste du système immunitaire, lauréat du prix Nobel de médecine avec Macfarlane Burnet « pour la découverte de la tolérance immunitaire acquise ».
 14 avril : Jean-Baptiste Mockey (mort en 1981), pharmacien et homme politique ivoirien.
 8 mai : Michel Sapir (mort en 2002), psychanalyste français d'origine russe.
-24 mai : Henri Laubie (mort en 2009), médecin, pharmacien et botaniste français[7].
+24 mai : Henri Laubie (mort en 2009), médecin, pharmacien et botaniste français.
 21 décembre : Robert Fabre (mort en 2006, pharmacien et homme politique français.
 27 décembre : William Masters (mort en 2001), gynécologue et sexologue américain.
 Date inconnue
 Abdelkader Barakrok (mort en 2006), médecin et homme politique français.
 Alexis Corre (mort en 2001), dermatologue français.
 Jacqueline Gilardoni (morte en 2001), défenseur du bien-être animal, fondatrice de l'Œuvre d'assistance aux bêtes d'abattoir.
-Paul Guinet (mort en 2012), endocrinologue français[8].
+Paul Guinet (mort en 2012), endocrinologue français.
 Edward Lambert (mort en 2003), médecin et physiologiste américain.
 Charles Rick (mort en 2002), botaniste et généticien américain, spécialiste de la biologie de la tomate.
-Raoul Tubiana (mort en 2013), chirurgien français[9].</t>
+Raoul Tubiana (mort en 2013), chirurgien français.</t>
         </is>
       </c>
     </row>
@@ -609,7 +627,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1915_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1915_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -627,18 +645,20 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4 janvier : Élie Cazanove (né en 1867), médecin français, officier du corps de santé des armées[10].
-27 janvier : Léonce Chaulet (né en 1867), vétérinaire français, officier du service de santé des armées[11].
-5 mars : Ernest Onimus (né en 1840), médecin français[12],[13].
-30 avril : Léon-Henri Thoinot (né en 1858), médecin et microbiologiste français[14].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>4 janvier : Élie Cazanove (né en 1867), médecin français, officier du corps de santé des armées.
+27 janvier : Léonce Chaulet (né en 1867), vétérinaire français, officier du service de santé des armées.
+5 mars : Ernest Onimus (né en 1840), médecin français,.
+30 avril : Léon-Henri Thoinot (né en 1858), médecin et microbiologiste français.
 18 septembre : Susan La Flesche Picotte (née en 1865), première femme médecin amérindienne aux États-Unis.
 12 octobre : Edith Cavell (née en 1865), infirmière britannique.
 28 octobre : Charles Bouchard (né en 1837), anatomopathologiste, clinicien et biologiste français.
 18 décembre : Édouard Vaillant (né en 1840), médecin et homme politique français.
 19 décembre : Aloïs Alzheimer (né en 1864), psychiatre et neuropathologiste allemand, premier à décrire la maladie qui porte aujourd'hui son nom.
-21 décembre : Jean-Baptiste Martel (né en 1836), pharmacien québécois[15].
+21 décembre : Jean-Baptiste Martel (né en 1836), pharmacien québécois.
 Date inconnue
 Ernest Masoin (né en 1844), médecin belge, physiologiste, pathologiste et historien de la médecine.</t>
         </is>
